--- a/V_BD/Hamamatsu_S10362-33-025C/dV_dT.xlsx
+++ b/V_BD/Hamamatsu_S10362-33-025C/dV_dT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="16" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="292" sheetId="22" r:id="rId13"/>
     <sheet name="295" sheetId="19" r:id="rId14"/>
     <sheet name="vs" sheetId="9" r:id="rId15"/>
+    <sheet name="Лист1" sheetId="23" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="17">
   <si>
     <t>run</t>
   </si>
@@ -68,6 +69,18 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>V_Bd</t>
+  </si>
+  <si>
+    <t>dV</t>
+  </si>
 </sst>
 </file>
 
@@ -102,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -314,11 +328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357469808"/>
-        <c:axId val="357470192"/>
+        <c:axId val="181092912"/>
+        <c:axId val="181093304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357469808"/>
+        <c:axId val="181092912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,12 +389,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357470192"/>
+        <c:crossAx val="181093304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357470192"/>
+        <c:axId val="181093304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +451,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357469808"/>
+        <c:crossAx val="181092912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -501,7 +515,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -670,11 +683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="495441072"/>
-        <c:axId val="501016560"/>
+        <c:axId val="240174328"/>
+        <c:axId val="240174720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="495441072"/>
+        <c:axId val="240174328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,12 +744,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501016560"/>
+        <c:crossAx val="240174720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501016560"/>
+        <c:axId val="240174720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +806,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495441072"/>
+        <c:crossAx val="240174328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -857,7 +870,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1023,11 +1035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="417808896"/>
-        <c:axId val="502194896"/>
+        <c:axId val="240175504"/>
+        <c:axId val="240175896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="417808896"/>
+        <c:axId val="240175504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,12 +1096,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502194896"/>
+        <c:crossAx val="240175896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502194896"/>
+        <c:axId val="240175896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1158,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417808896"/>
+        <c:crossAx val="240175504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1210,7 +1222,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1382,11 +1393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415783168"/>
-        <c:axId val="415783560"/>
+        <c:axId val="240176680"/>
+        <c:axId val="240177072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415783168"/>
+        <c:axId val="240176680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,12 +1454,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415783560"/>
+        <c:crossAx val="240177072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415783560"/>
+        <c:axId val="240177072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1516,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415783168"/>
+        <c:crossAx val="240176680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1569,7 +1580,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1750,11 +1760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="503224640"/>
-        <c:axId val="497714776"/>
+        <c:axId val="240177856"/>
+        <c:axId val="240178248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="503224640"/>
+        <c:axId val="240177856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,12 +1821,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497714776"/>
+        <c:crossAx val="240178248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="497714776"/>
+        <c:axId val="240178248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1883,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503224640"/>
+        <c:crossAx val="240177856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2031,8 +2041,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.40677803504420745"/>
-                  <c:y val="1.287820981140244E-2"/>
+                  <c:x val="-0.55002964026550372"/>
+                  <c:y val="0.14633357685959358"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2171,11 +2181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357958256"/>
-        <c:axId val="357961000"/>
+        <c:axId val="240556816"/>
+        <c:axId val="240557208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357958256"/>
+        <c:axId val="240556816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,12 +2242,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357961000"/>
+        <c:crossAx val="240557208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357961000"/>
+        <c:axId val="240557208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2304,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357958256"/>
+        <c:crossAx val="240556816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2358,7 +2368,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2536,11 +2545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357470960"/>
-        <c:axId val="357574240"/>
+        <c:axId val="181094088"/>
+        <c:axId val="181094480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357470960"/>
+        <c:axId val="181094088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,12 +2606,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357574240"/>
+        <c:crossAx val="181094480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357574240"/>
+        <c:axId val="181094480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2668,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357470960"/>
+        <c:crossAx val="181094088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2723,7 +2732,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2898,11 +2906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357801664"/>
-        <c:axId val="357802048"/>
+        <c:axId val="181095264"/>
+        <c:axId val="181095656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357801664"/>
+        <c:axId val="181095264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,12 +2967,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357802048"/>
+        <c:crossAx val="181095656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357802048"/>
+        <c:axId val="181095656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,7 +3029,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357801664"/>
+        <c:crossAx val="181095264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3085,7 +3093,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3260,11 +3267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255396272"/>
-        <c:axId val="255396664"/>
+        <c:axId val="181096440"/>
+        <c:axId val="181096832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="255396272"/>
+        <c:axId val="181096440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,12 +3328,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255396664"/>
+        <c:crossAx val="181096832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255396664"/>
+        <c:axId val="181096832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,7 +3390,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255396272"/>
+        <c:crossAx val="181096440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3447,7 +3454,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3622,11 +3628,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255397448"/>
-        <c:axId val="357957472"/>
+        <c:axId val="181097616"/>
+        <c:axId val="181098008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="255397448"/>
+        <c:axId val="181097616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3683,12 +3689,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357957472"/>
+        <c:crossAx val="181098008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357957472"/>
+        <c:axId val="181098008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3745,7 +3751,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255397448"/>
+        <c:crossAx val="181097616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3809,7 +3815,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4002,11 +4007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357958648"/>
-        <c:axId val="357959040"/>
+        <c:axId val="181098792"/>
+        <c:axId val="181099184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357958648"/>
+        <c:axId val="181098792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,12 +4068,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357959040"/>
+        <c:crossAx val="181099184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357959040"/>
+        <c:axId val="181099184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4125,7 +4130,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357958648"/>
+        <c:crossAx val="181098792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4352,11 +4357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357959824"/>
-        <c:axId val="357960216"/>
+        <c:axId val="240170800"/>
+        <c:axId val="240171192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357959824"/>
+        <c:axId val="240170800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4413,12 +4418,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357960216"/>
+        <c:crossAx val="240171192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357960216"/>
+        <c:axId val="240171192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4475,7 +4480,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357959824"/>
+        <c:crossAx val="240170800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4539,7 +4544,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4708,11 +4712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413865296"/>
-        <c:axId val="503158224"/>
+        <c:axId val="240171976"/>
+        <c:axId val="240172368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413865296"/>
+        <c:axId val="240171976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4769,12 +4773,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503158224"/>
+        <c:crossAx val="240172368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503158224"/>
+        <c:axId val="240172368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,7 +4835,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413865296"/>
+        <c:crossAx val="240171976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4895,7 +4899,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5064,11 +5067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="503159400"/>
-        <c:axId val="503158616"/>
+        <c:axId val="240173152"/>
+        <c:axId val="240173544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="503159400"/>
+        <c:axId val="240173152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5125,12 +5128,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503158616"/>
+        <c:crossAx val="240173544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503158616"/>
+        <c:axId val="240173544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,7 +5190,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503159400"/>
+        <c:crossAx val="240173152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14113,7 +14116,7 @@
         <v>126.03399999999996</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:T9" si="2">J8-I8</f>
+        <f t="shared" ref="I9:R9" si="2">J8-I8</f>
         <v>129.35000000000002</v>
       </c>
       <c r="J9">
@@ -14372,7 +14375,7 @@
         <v>147.173</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:T18" si="5">K17-J17</f>
+        <f t="shared" ref="J18:S18" si="5">K17-J17</f>
         <v>146.75300000000004</v>
       </c>
       <c r="K18">
@@ -14483,7 +14486,7 @@
         <v>149.80600000000004</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:V21" si="6">J20-I20</f>
+        <f t="shared" ref="I21:S21" si="6">J20-I20</f>
         <v>150.61900000000003</v>
       </c>
       <c r="J21">
@@ -15261,7 +15264,7 @@
         <v>188.18500000000006</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:S18" si="20">K17-J17</f>
+        <f t="shared" ref="J18:Q18" si="20">K17-J17</f>
         <v>186.13599999999997</v>
       </c>
       <c r="K18">
@@ -15358,7 +15361,7 @@
         <v>191.96899999999999</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:S21" si="21">J20-I20</f>
+        <f t="shared" ref="I21:Q21" si="21">J20-I20</f>
         <v>191.09900000000005</v>
       </c>
       <c r="J21">
@@ -16999,7 +17002,7 @@
         <v>183.964</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:Q21" si="6">J20-I20</f>
+        <f t="shared" ref="I21:P21" si="6">J20-I20</f>
         <v>180.48000000000002</v>
       </c>
       <c r="J21">
@@ -17587,7 +17590,7 @@
         <v>128.58099999999996</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:U12" si="5">K11-J11</f>
+        <f t="shared" ref="J12:R12" si="5">K11-J11</f>
         <v>125.685</v>
       </c>
       <c r="K12">
@@ -17921,7 +17924,7 @@
         <v>178.08699999999993</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:S21" si="8">J20-I20</f>
+        <f t="shared" ref="I21:R21" si="8">J20-I20</f>
         <v>175.226</v>
       </c>
       <c r="J21">
@@ -18082,10 +18085,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18093,12 +18096,12 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18111,8 +18114,14 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3">
+        <v>4.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>265</v>
       </c>
@@ -18126,8 +18135,15 @@
         <f>A4-273</f>
         <v>-8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4">
+        <f>56.592</f>
+        <v>56.591999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>267</v>
       </c>
@@ -18142,7 +18158,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>270</v>
       </c>
@@ -18157,7 +18173,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>272</v>
       </c>
@@ -18172,7 +18188,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>275</v>
       </c>
@@ -18187,7 +18203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>277</v>
       </c>
@@ -18202,7 +18218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>280</v>
       </c>
@@ -18217,7 +18233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>282</v>
       </c>
@@ -18232,7 +18248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>285</v>
       </c>
@@ -18247,7 +18263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>287</v>
       </c>
@@ -18262,7 +18278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>290</v>
       </c>
@@ -18277,7 +18293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>292</v>
       </c>
@@ -18292,7 +18308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>295</v>
       </c>
@@ -18421,6 +18437,192 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>4.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>56.591999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>295</v>
+      </c>
+      <c r="B5" s="1">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <f>$B$1*A5+$B$2</f>
+        <v>69.394999999999996</v>
+      </c>
+      <c r="D5">
+        <f>B5-C5</f>
+        <v>3.605000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>265</v>
+      </c>
+      <c r="B6" s="1">
+        <f>C6+D6</f>
+        <v>71.698000000000008</v>
+      </c>
+      <c r="C6">
+        <f>$B$1*A6+$B$2</f>
+        <v>68.093000000000004</v>
+      </c>
+      <c r="D6">
+        <f>D5</f>
+        <v>3.605000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>270</v>
+      </c>
+      <c r="B7" s="1">
+        <f>C7+D7</f>
+        <v>71.915000000000006</v>
+      </c>
+      <c r="C7">
+        <f>$B$1*A7+$B$2</f>
+        <v>68.31</v>
+      </c>
+      <c r="D7">
+        <f>D6</f>
+        <v>3.605000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>275</v>
+      </c>
+      <c r="B8" s="1">
+        <f>C8+D8</f>
+        <v>72.132000000000005</v>
+      </c>
+      <c r="C8">
+        <f>$B$1*A8+$B$2</f>
+        <v>68.527000000000001</v>
+      </c>
+      <c r="D8">
+        <f>D7</f>
+        <v>3.605000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>280</v>
+      </c>
+      <c r="B9" s="1">
+        <f>C9+D9</f>
+        <v>72.349000000000004</v>
+      </c>
+      <c r="C9">
+        <f>$B$1*A9+$B$2</f>
+        <v>68.744</v>
+      </c>
+      <c r="D9">
+        <f>D8</f>
+        <v>3.605000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>285</v>
+      </c>
+      <c r="B10" s="1">
+        <f>C10+D10</f>
+        <v>72.566000000000003</v>
+      </c>
+      <c r="C10">
+        <f>$B$1*A10+$B$2</f>
+        <v>68.960999999999999</v>
+      </c>
+      <c r="D10">
+        <f>D9</f>
+        <v>3.605000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>290</v>
+      </c>
+      <c r="B11" s="1">
+        <f>C11+D11</f>
+        <v>72.783000000000001</v>
+      </c>
+      <c r="C11">
+        <f>$B$1*A11+$B$2</f>
+        <v>69.177999999999997</v>
+      </c>
+      <c r="D11">
+        <f>D10</f>
+        <v>3.605000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>265</v>
+      </c>
+      <c r="B15" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="C15">
+        <f>$B$1*A15+$B$2</f>
+        <v>68.093000000000004</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15-C15</f>
+        <v>2.4069999999999965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18428,7 +18630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -18613,7 +18815,7 @@
         <v>113.29465</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:U9" si="6">H8-G8</f>
+        <f t="shared" ref="G9:L9" si="6">H8-G8</f>
         <v>113.587</v>
       </c>
       <c r="H9">
@@ -18785,7 +18987,7 @@
         <v>152.40096</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:T15" si="8">H14-G14</f>
+        <f t="shared" ref="G15:P15" si="8">H14-G14</f>
         <v>153.38300000000001</v>
       </c>
       <c r="H15">
@@ -18959,7 +19161,7 @@
         <v>172.43965</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:R21" si="10">H20-G20</f>
+        <f t="shared" ref="G21:P21" si="10">H20-G20</f>
         <v>172.863</v>
       </c>
       <c r="H21">
@@ -19047,7 +19249,7 @@
         <v>185.60073</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:Q24" si="11">H23-G23</f>
+        <f t="shared" ref="G24:N24" si="11">H23-G23</f>
         <v>185.72900000000001</v>
       </c>
       <c r="H24">
@@ -19463,7 +19665,7 @@
         <v>108.38512999999999</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:S6" si="0">H5-G5</f>
+        <f t="shared" ref="G6:L6" si="0">H5-G5</f>
         <v>109.40400000000001</v>
       </c>
       <c r="H6">
@@ -19535,7 +19737,7 @@
         <v>134.09066000000001</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:P9" si="1">H8-G8</f>
+        <f t="shared" ref="G9:N9" si="1">H8-G8</f>
         <v>134.46199999999999</v>
       </c>
       <c r="H9">
@@ -19621,7 +19823,7 @@
         <v>149.29665199999999</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:R12" si="2">H11-G11</f>
+        <f t="shared" ref="G12:P12" si="2">H11-G11</f>
         <v>149.38400000000001</v>
       </c>
       <c r="H12">
@@ -19706,7 +19908,7 @@
         <v>157.77550000000002</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:X15" si="3">H14-G14</f>
+        <f t="shared" ref="G15:M15" si="3">H14-G14</f>
         <v>158.89699999999999</v>
       </c>
       <c r="H15">
@@ -19873,7 +20075,7 @@
         <v>182.39027000000002</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:P21" si="7">H20-G20</f>
+        <f t="shared" ref="G21:L21" si="7">H20-G20</f>
         <v>184.45199999999997</v>
       </c>
       <c r="H21">
@@ -20378,7 +20580,7 @@
         <v>100.31954999999999</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:N3" si="0">H2-G2</f>
+        <f t="shared" ref="G3:L3" si="0">H2-G2</f>
         <v>105.91</v>
       </c>
       <c r="H3">
@@ -20447,7 +20649,7 @@
         <v>126.85422999999999</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:S6" si="1">H5-G5</f>
+        <f t="shared" ref="G6:M6" si="1">H5-G5</f>
         <v>128.55600000000001</v>
       </c>
       <c r="H6">
@@ -20529,7 +20731,7 @@
         <v>141.15932999999998</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:R9" si="2">H8-G8</f>
+        <f t="shared" ref="G9:P9" si="2">H8-G8</f>
         <v>143.88</v>
       </c>
       <c r="H9">
@@ -20623,7 +20825,7 @@
         <v>152.35817</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:Q12" si="3">H11-G11</f>
+        <f t="shared" ref="G12:P12" si="3">H11-G11</f>
         <v>152.87100000000001</v>
       </c>
       <c r="H12">
@@ -20717,7 +20919,7 @@
         <v>161.99583000000001</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:R15" si="4">H14-G14</f>
+        <f t="shared" ref="G15:P15" si="4">H14-G14</f>
         <v>163.12899999999999</v>
       </c>
       <c r="H15">
@@ -21107,7 +21309,7 @@
         <v>114.88154</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:N3" si="0">H2-G2</f>
+        <f t="shared" ref="G3:M3" si="0">H2-G2</f>
         <v>113.45800000000001</v>
       </c>
       <c r="H3">
@@ -21186,7 +21388,7 @@
         <v>124.64094</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:P6" si="1">H5-G5</f>
+        <f t="shared" ref="G6:O6" si="1">H5-G5</f>
         <v>124.67700000000001</v>
       </c>
       <c r="H6">
@@ -21273,7 +21475,7 @@
         <v>138.56808999999998</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:Q9" si="2">H8-G8</f>
+        <f t="shared" ref="G9:O9" si="2">H8-G8</f>
         <v>138.05600000000004</v>
       </c>
       <c r="H9">
@@ -21360,7 +21562,7 @@
         <v>149.44042000000002</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:Q12" si="3">H11-G11</f>
+        <f t="shared" ref="G12:O12" si="3">H11-G11</f>
         <v>150.01599999999999</v>
       </c>
       <c r="H12">
@@ -21861,7 +22063,7 @@
         <v>117.74293999999999</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:T3" si="0">H2-G2</f>
+        <f t="shared" ref="G3:N3" si="0">H2-G2</f>
         <v>119.971</v>
       </c>
       <c r="H3">
@@ -21941,7 +22143,7 @@
         <v>134.00356000000002</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:P6" si="1">H5-G5</f>
+        <f t="shared" ref="G6:N6" si="1">H5-G5</f>
         <v>133.32299999999998</v>
       </c>
       <c r="H6">
@@ -22101,7 +22303,7 @@
         <v>151.80635000000001</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:R12" si="5">H11-G11</f>
+        <f t="shared" ref="G12:N12" si="5">H11-G11</f>
         <v>152.1</v>
       </c>
       <c r="H12">
@@ -22554,7 +22756,7 @@
         <v>113.23511999999999</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:T3" si="0">H2-G2</f>
+        <f t="shared" ref="G3:Q3" si="0">H2-G2</f>
         <v>116.94900000000001</v>
       </c>
       <c r="H3">
@@ -22800,7 +23002,7 @@
         <v>137.18612999999999</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:U9" si="9">H8-G8</f>
+        <f t="shared" ref="G9:T9" si="9">H8-G8</f>
         <v>140.14000000000001</v>
       </c>
       <c r="H9">
@@ -23658,7 +23860,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/V_BD/Hamamatsu_S10362-33-025C/dV_dT.xlsx
+++ b/V_BD/Hamamatsu_S10362-33-025C/dV_dT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="16" r:id="rId1"/>
@@ -328,11 +328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181092912"/>
-        <c:axId val="181093304"/>
+        <c:axId val="211645904"/>
+        <c:axId val="211879232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181092912"/>
+        <c:axId val="211645904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181093304"/>
+        <c:crossAx val="211879232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181093304"/>
+        <c:axId val="211879232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +451,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181092912"/>
+        <c:crossAx val="211645904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -683,11 +683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240174328"/>
-        <c:axId val="240174720"/>
+        <c:axId val="213741232"/>
+        <c:axId val="213741624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240174328"/>
+        <c:axId val="213741232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,12 +744,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240174720"/>
+        <c:crossAx val="213741624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240174720"/>
+        <c:axId val="213741624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +806,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240174328"/>
+        <c:crossAx val="213741232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -870,6 +870,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1035,11 +1036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240175504"/>
-        <c:axId val="240175896"/>
+        <c:axId val="213742408"/>
+        <c:axId val="213742800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240175504"/>
+        <c:axId val="213742408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,12 +1097,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240175896"/>
+        <c:crossAx val="213742800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240175896"/>
+        <c:axId val="213742800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1159,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240175504"/>
+        <c:crossAx val="213742408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1393,11 +1394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240176680"/>
-        <c:axId val="240177072"/>
+        <c:axId val="150662680"/>
+        <c:axId val="213743584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240176680"/>
+        <c:axId val="150662680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,12 +1455,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240177072"/>
+        <c:crossAx val="213743584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240177072"/>
+        <c:axId val="213743584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1517,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240176680"/>
+        <c:crossAx val="150662680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1580,6 +1581,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1760,11 +1762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240177856"/>
-        <c:axId val="240178248"/>
+        <c:axId val="213744368"/>
+        <c:axId val="213744760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240177856"/>
+        <c:axId val="213744368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,12 +1823,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240178248"/>
+        <c:crossAx val="213744760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240178248"/>
+        <c:axId val="213744760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1885,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240177856"/>
+        <c:crossAx val="213744368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2181,11 +2183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240556816"/>
-        <c:axId val="240557208"/>
+        <c:axId val="213745544"/>
+        <c:axId val="213745936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240556816"/>
+        <c:axId val="213745544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,12 +2244,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240557208"/>
+        <c:crossAx val="213745936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240557208"/>
+        <c:axId val="213745936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,7 +2306,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240556816"/>
+        <c:crossAx val="213745544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2545,11 +2547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181094088"/>
-        <c:axId val="181094480"/>
+        <c:axId val="212550048"/>
+        <c:axId val="212518816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181094088"/>
+        <c:axId val="212550048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,12 +2608,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181094480"/>
+        <c:crossAx val="212518816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181094480"/>
+        <c:axId val="212518816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2670,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181094088"/>
+        <c:crossAx val="212550048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2906,11 +2908,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181095264"/>
-        <c:axId val="181095656"/>
+        <c:axId val="212752536"/>
+        <c:axId val="211858552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181095264"/>
+        <c:axId val="212752536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,12 +2969,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181095656"/>
+        <c:crossAx val="211858552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181095656"/>
+        <c:axId val="211858552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +3031,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181095264"/>
+        <c:crossAx val="212752536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3267,11 +3269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181096440"/>
-        <c:axId val="181096832"/>
+        <c:axId val="150659936"/>
+        <c:axId val="150660328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181096440"/>
+        <c:axId val="150659936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,12 +3330,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181096832"/>
+        <c:crossAx val="150660328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181096832"/>
+        <c:axId val="150660328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3390,7 +3392,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181096440"/>
+        <c:crossAx val="150659936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3454,6 +3456,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3628,11 +3631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181097616"/>
-        <c:axId val="181098008"/>
+        <c:axId val="150663072"/>
+        <c:axId val="150663464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181097616"/>
+        <c:axId val="150663072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3689,12 +3692,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181098008"/>
+        <c:crossAx val="150663464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181098008"/>
+        <c:axId val="150663464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3751,7 +3754,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181097616"/>
+        <c:crossAx val="150663072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4007,11 +4010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181098792"/>
-        <c:axId val="181099184"/>
+        <c:axId val="150664640"/>
+        <c:axId val="213738488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181098792"/>
+        <c:axId val="150664640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,12 +4071,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181099184"/>
+        <c:crossAx val="213738488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181099184"/>
+        <c:axId val="213738488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4130,7 +4133,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181098792"/>
+        <c:crossAx val="150664640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4194,7 +4197,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4357,11 +4359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240170800"/>
-        <c:axId val="240171192"/>
+        <c:axId val="213739272"/>
+        <c:axId val="213739664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240170800"/>
+        <c:axId val="213739272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4418,12 +4420,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240171192"/>
+        <c:crossAx val="213739664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240171192"/>
+        <c:axId val="213739664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,7 +4482,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240170800"/>
+        <c:crossAx val="213739272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4712,11 +4714,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240171976"/>
-        <c:axId val="240172368"/>
+        <c:axId val="150662288"/>
+        <c:axId val="150661896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240171976"/>
+        <c:axId val="150662288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,12 +4775,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240172368"/>
+        <c:crossAx val="150661896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240172368"/>
+        <c:axId val="150661896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4835,7 +4837,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240171976"/>
+        <c:crossAx val="150662288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4899,6 +4901,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5067,11 +5070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240173152"/>
-        <c:axId val="240173544"/>
+        <c:axId val="150661112"/>
+        <c:axId val="213740448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240173152"/>
+        <c:axId val="150661112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5128,12 +5131,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240173544"/>
+        <c:crossAx val="213740448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240173544"/>
+        <c:axId val="213740448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5190,7 +5193,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240173152"/>
+        <c:crossAx val="150661112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17148,8 +17151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18444,8 +18447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18488,7 +18491,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <f>$B$1*A5+$B$2</f>
+        <f t="shared" ref="C5:C11" si="0">$B$1*A5+$B$2</f>
         <v>69.394999999999996</v>
       </c>
       <c r="D5">
@@ -18501,15 +18504,15 @@
         <v>265</v>
       </c>
       <c r="B6" s="1">
-        <f>C6+D6</f>
+        <f t="shared" ref="B6:B11" si="1">C6+D6</f>
         <v>71.698000000000008</v>
       </c>
       <c r="C6">
-        <f>$B$1*A6+$B$2</f>
+        <f t="shared" si="0"/>
         <v>68.093000000000004</v>
       </c>
       <c r="D6">
-        <f>D5</f>
+        <f t="shared" ref="D6:D11" si="2">D5</f>
         <v>3.605000000000004</v>
       </c>
     </row>
@@ -18518,15 +18521,15 @@
         <v>270</v>
       </c>
       <c r="B7" s="1">
-        <f>C7+D7</f>
+        <f t="shared" si="1"/>
         <v>71.915000000000006</v>
       </c>
       <c r="C7">
-        <f>$B$1*A7+$B$2</f>
+        <f t="shared" si="0"/>
         <v>68.31</v>
       </c>
       <c r="D7">
-        <f>D6</f>
+        <f t="shared" si="2"/>
         <v>3.605000000000004</v>
       </c>
     </row>
@@ -18535,15 +18538,15 @@
         <v>275</v>
       </c>
       <c r="B8" s="1">
-        <f>C8+D8</f>
+        <f t="shared" si="1"/>
         <v>72.132000000000005</v>
       </c>
       <c r="C8">
-        <f>$B$1*A8+$B$2</f>
+        <f t="shared" si="0"/>
         <v>68.527000000000001</v>
       </c>
       <c r="D8">
-        <f>D7</f>
+        <f t="shared" si="2"/>
         <v>3.605000000000004</v>
       </c>
     </row>
@@ -18552,15 +18555,15 @@
         <v>280</v>
       </c>
       <c r="B9" s="1">
-        <f>C9+D9</f>
+        <f t="shared" si="1"/>
         <v>72.349000000000004</v>
       </c>
       <c r="C9">
-        <f>$B$1*A9+$B$2</f>
+        <f t="shared" si="0"/>
         <v>68.744</v>
       </c>
       <c r="D9">
-        <f>D8</f>
+        <f t="shared" si="2"/>
         <v>3.605000000000004</v>
       </c>
     </row>
@@ -18569,15 +18572,15 @@
         <v>285</v>
       </c>
       <c r="B10" s="1">
-        <f>C10+D10</f>
+        <f t="shared" si="1"/>
         <v>72.566000000000003</v>
       </c>
       <c r="C10">
-        <f>$B$1*A10+$B$2</f>
+        <f t="shared" si="0"/>
         <v>68.960999999999999</v>
       </c>
       <c r="D10">
-        <f>D9</f>
+        <f t="shared" si="2"/>
         <v>3.605000000000004</v>
       </c>
     </row>
@@ -18586,15 +18589,15 @@
         <v>290</v>
       </c>
       <c r="B11" s="1">
-        <f>C11+D11</f>
+        <f t="shared" si="1"/>
         <v>72.783000000000001</v>
       </c>
       <c r="C11">
-        <f>$B$1*A11+$B$2</f>
+        <f t="shared" si="0"/>
         <v>69.177999999999997</v>
       </c>
       <c r="D11">
-        <f>D10</f>
+        <f t="shared" si="2"/>
         <v>3.605000000000004</v>
       </c>
     </row>
@@ -18631,7 +18634,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/V_BD/Hamamatsu_S10362-33-025C/dV_dT.xlsx
+++ b/V_BD/Hamamatsu_S10362-33-025C/dV_dT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="16" r:id="rId1"/>
@@ -150,7 +150,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -328,11 +327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211645904"/>
-        <c:axId val="211879232"/>
+        <c:axId val="297572416"/>
+        <c:axId val="297572808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211645904"/>
+        <c:axId val="297572416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +388,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211879232"/>
+        <c:crossAx val="297572808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211879232"/>
+        <c:axId val="297572808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +450,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211645904"/>
+        <c:crossAx val="297572416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -683,11 +682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213741232"/>
-        <c:axId val="213741624"/>
+        <c:axId val="300762856"/>
+        <c:axId val="300763248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213741232"/>
+        <c:axId val="300762856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,12 +743,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213741624"/>
+        <c:crossAx val="300763248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213741624"/>
+        <c:axId val="300763248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +805,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213741232"/>
+        <c:crossAx val="300762856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -870,7 +869,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1036,11 +1034,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213742408"/>
-        <c:axId val="213742800"/>
+        <c:axId val="300764032"/>
+        <c:axId val="300764424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213742408"/>
+        <c:axId val="300764032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,12 +1095,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213742800"/>
+        <c:crossAx val="300764424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213742800"/>
+        <c:axId val="300764424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1157,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213742408"/>
+        <c:crossAx val="300764032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1394,11 +1392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150662680"/>
-        <c:axId val="213743584"/>
+        <c:axId val="300765208"/>
+        <c:axId val="300765600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150662680"/>
+        <c:axId val="300765208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,12 +1453,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213743584"/>
+        <c:crossAx val="300765600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213743584"/>
+        <c:axId val="300765600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1515,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150662680"/>
+        <c:crossAx val="300765208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1762,11 +1760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213744368"/>
-        <c:axId val="213744760"/>
+        <c:axId val="592203168"/>
+        <c:axId val="592203560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213744368"/>
+        <c:axId val="592203168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,12 +1821,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213744760"/>
+        <c:crossAx val="592203560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213744760"/>
+        <c:axId val="592203560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1883,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213744368"/>
+        <c:crossAx val="592203168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2183,11 +2181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213745544"/>
-        <c:axId val="213745936"/>
+        <c:axId val="592204344"/>
+        <c:axId val="592204736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213745544"/>
+        <c:axId val="592204344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,12 +2242,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213745936"/>
+        <c:crossAx val="592204736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213745936"/>
+        <c:axId val="592204736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2304,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213745544"/>
+        <c:crossAx val="592204344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2547,11 +2545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212550048"/>
-        <c:axId val="212518816"/>
+        <c:axId val="302624496"/>
+        <c:axId val="302624888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212550048"/>
+        <c:axId val="302624496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,12 +2606,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212518816"/>
+        <c:crossAx val="302624888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212518816"/>
+        <c:axId val="302624888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2668,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212550048"/>
+        <c:crossAx val="302624496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2908,11 +2906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212752536"/>
-        <c:axId val="211858552"/>
+        <c:axId val="302626064"/>
+        <c:axId val="302626456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212752536"/>
+        <c:axId val="302626064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2969,12 +2967,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211858552"/>
+        <c:crossAx val="302626456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211858552"/>
+        <c:axId val="302626456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,7 +3029,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212752536"/>
+        <c:crossAx val="302626064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3269,11 +3267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150659936"/>
-        <c:axId val="150660328"/>
+        <c:axId val="302627240"/>
+        <c:axId val="214448504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150659936"/>
+        <c:axId val="302627240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,12 +3328,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150660328"/>
+        <c:crossAx val="214448504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150660328"/>
+        <c:axId val="214448504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3390,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150659936"/>
+        <c:crossAx val="302627240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3456,7 +3454,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3631,11 +3628,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150663072"/>
-        <c:axId val="150663464"/>
+        <c:axId val="302624104"/>
+        <c:axId val="302623712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150663072"/>
+        <c:axId val="302624104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3692,12 +3689,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150663464"/>
+        <c:crossAx val="302623712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150663464"/>
+        <c:axId val="302623712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3754,7 +3751,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150663072"/>
+        <c:crossAx val="302624104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4010,11 +4007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150664640"/>
-        <c:axId val="213738488"/>
+        <c:axId val="214449680"/>
+        <c:axId val="214450072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150664640"/>
+        <c:axId val="214449680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4071,12 +4068,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213738488"/>
+        <c:crossAx val="214450072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213738488"/>
+        <c:axId val="214450072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4130,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150664640"/>
+        <c:crossAx val="214449680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4359,11 +4356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213739272"/>
-        <c:axId val="213739664"/>
+        <c:axId val="302625672"/>
+        <c:axId val="214450856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213739272"/>
+        <c:axId val="302625672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4420,12 +4417,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213739664"/>
+        <c:crossAx val="214450856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213739664"/>
+        <c:axId val="214450856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4482,7 +4479,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213739272"/>
+        <c:crossAx val="302625672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4714,11 +4711,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150662288"/>
-        <c:axId val="150661896"/>
+        <c:axId val="214451640"/>
+        <c:axId val="214452032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150662288"/>
+        <c:axId val="214451640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,12 +4772,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150661896"/>
+        <c:crossAx val="214452032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150661896"/>
+        <c:axId val="214452032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,7 +4834,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150662288"/>
+        <c:crossAx val="214451640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4901,7 +4898,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5070,11 +5066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150661112"/>
-        <c:axId val="213740448"/>
+        <c:axId val="297573592"/>
+        <c:axId val="300762072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150661112"/>
+        <c:axId val="297573592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5131,12 +5127,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213740448"/>
+        <c:crossAx val="300762072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213740448"/>
+        <c:axId val="300762072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5193,7 +5189,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150661112"/>
+        <c:crossAx val="297573592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17151,7 +17147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -18090,8 +18086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/V_BD/Hamamatsu_S10362-33-025C/dV_dT.xlsx
+++ b/V_BD/Hamamatsu_S10362-33-025C/dV_dT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="16" r:id="rId1"/>
@@ -150,6 +150,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -327,11 +328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297572416"/>
-        <c:axId val="297572808"/>
+        <c:axId val="390791328"/>
+        <c:axId val="390943920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297572416"/>
+        <c:axId val="390791328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,12 +389,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297572808"/>
+        <c:crossAx val="390943920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297572808"/>
+        <c:axId val="390943920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,7 +451,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297572416"/>
+        <c:crossAx val="390791328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -514,6 +515,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -682,11 +684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300762856"/>
-        <c:axId val="300763248"/>
+        <c:axId val="391091784"/>
+        <c:axId val="391092176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300762856"/>
+        <c:axId val="391091784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,12 +745,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300763248"/>
+        <c:crossAx val="391092176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300763248"/>
+        <c:axId val="391092176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +807,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300762856"/>
+        <c:crossAx val="391091784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -869,6 +871,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1034,11 +1037,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300764032"/>
-        <c:axId val="300764424"/>
+        <c:axId val="391092960"/>
+        <c:axId val="392109944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300764032"/>
+        <c:axId val="391092960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,12 +1098,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300764424"/>
+        <c:crossAx val="392109944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300764424"/>
+        <c:axId val="392109944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1160,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300764032"/>
+        <c:crossAx val="391092960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1221,6 +1224,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1392,11 +1396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300765208"/>
-        <c:axId val="300765600"/>
+        <c:axId val="392110728"/>
+        <c:axId val="392111120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300765208"/>
+        <c:axId val="392110728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,12 +1457,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300765600"/>
+        <c:crossAx val="392111120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300765600"/>
+        <c:axId val="392111120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1519,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300765208"/>
+        <c:crossAx val="392110728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1760,11 +1764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="592203168"/>
-        <c:axId val="592203560"/>
+        <c:axId val="392111904"/>
+        <c:axId val="392112296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="592203168"/>
+        <c:axId val="392111904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,12 +1825,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592203560"/>
+        <c:crossAx val="392112296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="592203560"/>
+        <c:axId val="392112296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1887,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592203168"/>
+        <c:crossAx val="392111904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2181,11 +2185,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="592204344"/>
-        <c:axId val="592204736"/>
+        <c:axId val="392113080"/>
+        <c:axId val="392113472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="592204344"/>
+        <c:axId val="392113080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,12 +2246,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592204736"/>
+        <c:crossAx val="392113472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="592204736"/>
+        <c:axId val="392113472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,7 +2308,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592204344"/>
+        <c:crossAx val="392113080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2368,6 +2372,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2545,11 +2550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302624496"/>
-        <c:axId val="302624888"/>
+        <c:axId val="390965024"/>
+        <c:axId val="390720560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302624496"/>
+        <c:axId val="390965024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,12 +2611,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302624888"/>
+        <c:crossAx val="390720560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302624888"/>
+        <c:axId val="390720560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2673,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302624496"/>
+        <c:crossAx val="390965024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2732,6 +2737,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2906,11 +2912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302626064"/>
-        <c:axId val="302626456"/>
+        <c:axId val="390904192"/>
+        <c:axId val="389599704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302626064"/>
+        <c:axId val="390904192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,12 +2973,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302626456"/>
+        <c:crossAx val="389599704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302626456"/>
+        <c:axId val="389599704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +3035,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302626064"/>
+        <c:crossAx val="390904192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3093,6 +3099,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3267,11 +3274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302627240"/>
-        <c:axId val="214448504"/>
+        <c:axId val="389600488"/>
+        <c:axId val="389600880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302627240"/>
+        <c:axId val="389600488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,12 +3335,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214448504"/>
+        <c:crossAx val="389600880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214448504"/>
+        <c:axId val="389600880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3390,7 +3397,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302627240"/>
+        <c:crossAx val="389600488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3454,6 +3461,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3628,11 +3636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302624104"/>
-        <c:axId val="302623712"/>
+        <c:axId val="391086296"/>
+        <c:axId val="391086688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302624104"/>
+        <c:axId val="391086296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3689,12 +3697,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302623712"/>
+        <c:crossAx val="391086688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302623712"/>
+        <c:axId val="391086688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3751,7 +3759,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302624104"/>
+        <c:crossAx val="391086296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3815,6 +3823,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4007,11 +4016,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214449680"/>
-        <c:axId val="214450072"/>
+        <c:axId val="391087472"/>
+        <c:axId val="391087864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214449680"/>
+        <c:axId val="391087472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,12 +4077,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214450072"/>
+        <c:crossAx val="391087864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214450072"/>
+        <c:axId val="391087864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4130,7 +4139,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214449680"/>
+        <c:crossAx val="391087472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4194,6 +4203,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4356,11 +4366,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302625672"/>
-        <c:axId val="214450856"/>
+        <c:axId val="391088648"/>
+        <c:axId val="391089040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302625672"/>
+        <c:axId val="391088648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4417,12 +4427,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214450856"/>
+        <c:crossAx val="391089040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214450856"/>
+        <c:axId val="391089040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4479,7 +4489,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302625672"/>
+        <c:crossAx val="391088648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4543,6 +4553,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4711,11 +4722,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214451640"/>
-        <c:axId val="214452032"/>
+        <c:axId val="391085904"/>
+        <c:axId val="391089824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214451640"/>
+        <c:axId val="391085904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4772,12 +4783,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214452032"/>
+        <c:crossAx val="391089824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214452032"/>
+        <c:axId val="391089824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4834,7 +4845,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214451640"/>
+        <c:crossAx val="391085904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4898,6 +4909,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5066,11 +5078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297573592"/>
-        <c:axId val="300762072"/>
+        <c:axId val="391090608"/>
+        <c:axId val="391091000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297573592"/>
+        <c:axId val="391090608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5127,12 +5139,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300762072"/>
+        <c:crossAx val="391091000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300762072"/>
+        <c:axId val="391091000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5189,7 +5201,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297573592"/>
+        <c:crossAx val="391090608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18086,8 +18098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18444,7 +18456,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18629,8 +18641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
